--- a/projekt.xlsx
+++ b/projekt.xlsx
@@ -1,54 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdalena.seraszek/Documents/projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdalena.seraszek/udacity-git-course/SQL-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3936C90-8151-6840-8B7A-421A121596A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B99583-4912-984B-A734-9BCEE56B4F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="2980" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{7ABF8773-014D-F64F-8D52-1C1BAE422173}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16060" xr2:uid="{7ABF8773-014D-F64F-8D52-1C1BAE422173}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$2:$G$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -295,12 +264,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_)\ _P_L_N_ ;_ * \(#,##0.00\)\ _P_L_N_ ;_ * &quot;-&quot;??_)\ _P_L_N_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1413,7 +1379,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1766,6 +1731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B5B-0743-AEDE-543EF5B02117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1781,6 +1751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7B5B-0743-AEDE-543EF5B02117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1796,6 +1771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7B5B-0743-AEDE-543EF5B02117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1811,6 +1791,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7B5B-0743-AEDE-543EF5B02117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1826,6 +1811,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7B5B-0743-AEDE-543EF5B02117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4198,7 +4188,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{622CE7B4-15E6-2E46-9D9C-8B4F7E920884}" name="PivotTable28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{622CE7B4-15E6-2E46-9D9C-8B4F7E920884}" name="PivotTable28" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="R1:W8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0">
@@ -4928,19 +4918,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62B0ADDB-7665-CD44-A0BE-AC91D19318F2}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{E8BF4CCF-16F0-3240-8DEE-98C072D30764}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0B37169D-DFB4-2F4A-967F-AD75354DCEE3}" name="month_" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{605DEF3D-EE92-B940-BC72-09084D011A3F}" name="revenue"/>
-    <tableColumn id="3" xr3:uid="{D2DA0FB7-377E-5545-9668-CF7F49E41CB7}" name="store_id"/>
-    <tableColumn id="4" xr3:uid="{8EE119B3-A836-124A-AC94-0167F15C0987}" name="full_name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5237,55 +5214,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E275F4-C587-4A4E-AF1C-B049989EF6D7}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>39114</v>
-      </c>
-      <c r="B2">
-        <v>33544764</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50307C5F-9518-E944-A35B-E826F505B38D}">
   <dimension ref="A1:W10"/>
   <sheetViews>
